--- a/Filer/Webscraping join rating.xlsx
+++ b/Filer/Webscraping join rating.xlsx
@@ -403,7 +403,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>1668</v>
+        <v>1836</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -421,13 +421,13 @@
         </is>
       </c>
       <c r="E3">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
@@ -439,7 +439,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>1557</v>
+        <v>1143</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -457,18 +457,18 @@
         </is>
       </c>
       <c r="E5">
-        <v>1485</v>
+        <v>1698</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -511,7 +511,7 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -529,18 +529,18 @@
         </is>
       </c>
       <c r="E9">
-        <v>2628</v>
+        <v>2636</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -558,18 +558,18 @@
         </is>
       </c>
       <c r="E10">
-        <v>1790</v>
+        <v>1839</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -587,18 +587,18 @@
         </is>
       </c>
       <c r="E11">
-        <v>2096</v>
+        <v>2150</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -616,18 +616,18 @@
         </is>
       </c>
       <c r="E12">
-        <v>2551</v>
+        <v>2514</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1160</v>
+        <v>1301</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -645,18 +645,18 @@
         </is>
       </c>
       <c r="E13">
-        <v>1647</v>
+        <v>1640</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -674,18 +674,18 @@
         </is>
       </c>
       <c r="E14">
-        <v>2378</v>
+        <v>2400</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>316</v>
+        <v>397</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -703,18 +703,18 @@
         </is>
       </c>
       <c r="E15">
-        <v>2119</v>
+        <v>2091</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>-28</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -732,18 +732,18 @@
         </is>
       </c>
       <c r="E16">
-        <v>1942</v>
+        <v>1968</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>383</v>
+        <v>618</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -761,18 +761,18 @@
         </is>
       </c>
       <c r="E17">
-        <v>2067</v>
+        <v>1957</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>406</v>
+        <v>481</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -790,18 +790,18 @@
         </is>
       </c>
       <c r="E18">
-        <v>2052</v>
+        <v>2038</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -819,18 +819,18 @@
         </is>
       </c>
       <c r="E19">
-        <v>2376</v>
+        <v>2383</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -848,25 +848,47 @@
         </is>
       </c>
       <c r="E20">
-        <v>2553</v>
+        <v>2573</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
+      <c r="A21">
+        <v>2184</v>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>100510‑FRKJ</t>
         </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Frederik Kjeldgaard</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Hørning</t>
+        </is>
+      </c>
+      <c r="E21">
+        <v>1323</v>
+      </c>
+      <c r="F21">
+        <v>115</v>
+      </c>
+      <c r="G21">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1734</v>
+        <v>1219</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -884,18 +906,18 @@
         </is>
       </c>
       <c r="E22">
-        <v>1419</v>
+        <v>1671</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>436</v>
+        <v>490</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -924,7 +946,7 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>1477</v>
+        <v>1632</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -953,7 +975,7 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -971,18 +993,18 @@
         </is>
       </c>
       <c r="E25">
-        <v>2187</v>
+        <v>2210</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1000,18 +1022,18 @@
         </is>
       </c>
       <c r="E26">
-        <v>2521</v>
+        <v>2543</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1032,15 +1054,15 @@
         <v>2269</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>2385</v>
+        <v>2630</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1076,7 +1098,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1105,7 +1127,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>1408</v>
+        <v>1614</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1123,13 +1145,13 @@
         </is>
       </c>
       <c r="E31">
-        <v>1547</v>
+        <v>1522</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -1141,7 +1163,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>354</v>
+        <v>388</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1159,13 +1181,13 @@
         </is>
       </c>
       <c r="E33">
-        <v>2092</v>
+        <v>2096</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
@@ -1177,7 +1199,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1195,13 +1217,13 @@
         </is>
       </c>
       <c r="E35">
-        <v>2455</v>
+        <v>2432</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -1213,7 +1235,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>413</v>
+        <v>363</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1231,18 +1253,18 @@
         </is>
       </c>
       <c r="E37">
-        <v>2050</v>
+        <v>2118</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1260,18 +1282,18 @@
         </is>
       </c>
       <c r="E38">
-        <v>2380</v>
+        <v>2381</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1289,18 +1311,18 @@
         </is>
       </c>
       <c r="E39">
-        <v>2468</v>
+        <v>2459</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>428</v>
+        <v>508</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1318,18 +1340,18 @@
         </is>
       </c>
       <c r="E40">
-        <v>2041</v>
+        <v>2023</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>-55</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>487</v>
+        <v>548</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1347,18 +1369,18 @@
         </is>
       </c>
       <c r="E41">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>2967</v>
+        <v>3372</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1376,18 +1398,18 @@
         </is>
       </c>
       <c r="E42">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1181</v>
+        <v>1295</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1405,13 +1427,13 @@
         </is>
       </c>
       <c r="E43">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44">
@@ -1423,7 +1445,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>594</v>
+        <v>666</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1452,7 +1474,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>448</v>
+        <v>424</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1470,18 +1492,18 @@
         </is>
       </c>
       <c r="E46">
-        <v>2025</v>
+        <v>2070</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1978</v>
+        <v>2143</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1499,18 +1521,18 @@
         </is>
       </c>
       <c r="E47">
-        <v>1325</v>
+        <v>1335</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1528,18 +1550,18 @@
         </is>
       </c>
       <c r="E48">
-        <v>2352</v>
+        <v>2363</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>2547</v>
+        <v>2655</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1557,18 +1579,18 @@
         </is>
       </c>
       <c r="E49">
-        <v>1125</v>
+        <v>1172</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>486</v>
+        <v>432</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1586,25 +1608,47 @@
         </is>
       </c>
       <c r="E50">
-        <v>2001</v>
+        <v>2060</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51">
+      <c r="A51">
+        <v>659</v>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>200210‑MASE</t>
         </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Malik Hartvig Bruun Severinsen</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Esbjerg</t>
+        </is>
+      </c>
+      <c r="E51">
+        <v>1932</v>
+      </c>
+      <c r="F51">
+        <v>58</v>
+      </c>
+      <c r="G51">
+        <v>47</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1622,25 +1666,44 @@
         </is>
       </c>
       <c r="E52">
-        <v>2381</v>
+        <v>2376</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53">
+      <c r="A53">
+        <v>143</v>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>121000‑MADA</t>
         </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Marius Dam</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Viby</t>
+        </is>
+      </c>
+      <c r="E53">
+        <v>2369</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>1473</v>
+        <v>1737</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1658,13 +1721,13 @@
         </is>
       </c>
       <c r="E54">
-        <v>1518</v>
+        <v>1479</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55">
@@ -1676,7 +1739,7 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>573</v>
+        <v>628</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1694,18 +1757,18 @@
         </is>
       </c>
       <c r="E56">
-        <v>1944</v>
+        <v>1950</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>1441</v>
+        <v>1594</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1734,7 +1797,7 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1752,18 +1815,18 @@
         </is>
       </c>
       <c r="E58">
-        <v>2501</v>
+        <v>2488</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>1165</v>
+        <v>1285</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1781,18 +1844,18 @@
         </is>
       </c>
       <c r="E59">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1810,18 +1873,18 @@
         </is>
       </c>
       <c r="E60">
-        <v>2265</v>
+        <v>2302</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1839,18 +1902,18 @@
         </is>
       </c>
       <c r="E61">
-        <v>2295</v>
+        <v>2259</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>2236</v>
+        <v>2461</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1868,18 +1931,18 @@
         </is>
       </c>
       <c r="E62">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -1908,7 +1971,7 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>207</v>
+        <v>292</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -1926,18 +1989,18 @@
         </is>
       </c>
       <c r="E64">
-        <v>2229</v>
+        <v>2177</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>-85</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>746</v>
+        <v>637</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -1955,18 +2018,18 @@
         </is>
       </c>
       <c r="E65">
-        <v>1847</v>
+        <v>1947</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>1889</v>
+        <v>1862</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -1984,18 +2047,18 @@
         </is>
       </c>
       <c r="E66">
-        <v>1355</v>
+        <v>1431</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2013,25 +2076,47 @@
         </is>
       </c>
       <c r="E67">
-        <v>2374</v>
+        <v>2360</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68">
+      <c r="A68">
+        <v>2782</v>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>050512‑OTSV</t>
         </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Otto Svindt</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Sisu/MBK</t>
+        </is>
+      </c>
+      <c r="E68">
+        <v>1131</v>
+      </c>
+      <c r="F68">
+        <v>5</v>
+      </c>
+      <c r="G68">
+        <v>24</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2049,18 +2134,18 @@
         </is>
       </c>
       <c r="E69">
-        <v>2301</v>
+        <v>2307</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>427</v>
+        <v>495</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2078,13 +2163,13 @@
         </is>
       </c>
       <c r="E70">
-        <v>2042</v>
+        <v>2031</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71">
@@ -2096,7 +2181,7 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>615</v>
+        <v>761</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2114,13 +2199,13 @@
         </is>
       </c>
       <c r="E72">
-        <v>1913</v>
+        <v>1874</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73">
@@ -2146,7 +2231,7 @@
     </row>
     <row r="76">
       <c r="A76">
-        <v>371</v>
+        <v>490</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2164,13 +2249,13 @@
         </is>
       </c>
       <c r="E76">
-        <v>2078</v>
+        <v>2034</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>-27</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77">
@@ -2196,7 +2281,7 @@
     </row>
     <row r="80">
       <c r="A80">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -2214,18 +2299,18 @@
         </is>
       </c>
       <c r="E80">
-        <v>2587</v>
+        <v>2576</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>993</v>
+        <v>1126</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -2243,18 +2328,18 @@
         </is>
       </c>
       <c r="E81">
-        <v>1717</v>
+        <v>1705</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>-38</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>708</v>
+        <v>868</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -2272,18 +2357,18 @@
         </is>
       </c>
       <c r="E82">
-        <v>1867</v>
+        <v>1822</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -2301,18 +2386,18 @@
         </is>
       </c>
       <c r="E83">
-        <v>2399</v>
+        <v>2413</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>2137</v>
+        <v>2371</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>

--- a/Filer/Webscraping join rating.xlsx
+++ b/Filer/Webscraping join rating.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:G195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,7 +365,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Spiller_Id</t>
+          <t>k_deltager_id</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -391,174 +391,66 @@
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Kampe</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>230709-ALBR</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>1836</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>191003‑AMMA</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Amanda Mau</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Amager</t>
-        </is>
-      </c>
-      <c r="E3">
-        <v>1438</v>
-      </c>
-      <c r="F3">
-        <v>-4</v>
-      </c>
-      <c r="G3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>050612-AMAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>1143</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>100906‑ANHO</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Anders Holler</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Tateni</t>
-        </is>
-      </c>
-      <c r="E5">
-        <v>1698</v>
-      </c>
-      <c r="F5">
-        <v>80</v>
-      </c>
-      <c r="G5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>141298‑ANLI</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Anders Lind</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Brønshøj</t>
-        </is>
-      </c>
-      <c r="E6">
-        <v>2803</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>231093</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>030894</t>
+          <t>161098‑JOBR</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>40</v>
+        <v>2756</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>030197‑ANAN</t>
+          <t>050512‑OTSV</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Anton Andersson</t>
+          <t>Otto Svindt</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Næstved B.</t>
+          <t>Sisu/MBK</t>
         </is>
       </c>
       <c r="E9">
-        <v>2636</v>
+        <v>1154</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>836</v>
+        <v>2556</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>201005‑BADI</t>
+          <t>030882‑MIMI</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Bastian Diness</t>
+          <t>Milosz Miszczuk</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sisu/MBK</t>
+          <t>Hørning</t>
         </is>
       </c>
       <c r="E10">
-        <v>1839</v>
+        <v>1207</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -569,74 +461,74 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>319</v>
+        <v>145</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>060598‑BELI</t>
+          <t>280389‑JOAG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Benjamin Lillelund</t>
+          <t>Jonas Ring Agerholm</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sisu/MBK</t>
+          <t>Rønde</t>
         </is>
       </c>
       <c r="E11">
-        <v>2150</v>
+        <v>2371</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>76</v>
+        <v>1422</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>080294‑BESØ</t>
+          <t>080950‑BEJA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Benjamin Sørensen</t>
+          <t>Bent O. Jakobsen</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Hørning</t>
+          <t>Sisu/MBK</t>
         </is>
       </c>
       <c r="E12">
-        <v>2514</v>
+        <v>1603</v>
       </c>
       <c r="F12">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="G12">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1301</v>
+        <v>4057</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>080950‑BEJA</t>
+          <t>050612‑AMAL</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Bent O. Jakobsen</t>
+          <t>Amin Saad Al-Zayadi</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -645,288 +537,288 @@
         </is>
       </c>
       <c r="E13">
-        <v>1640</v>
+        <v>966</v>
       </c>
       <c r="F13">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>120</v>
+        <v>523</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>281101‑BJKR</t>
+          <t>030302‑JOWE</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Bjarke Krog</t>
+          <t>Jonathan Weiss</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Brønderslev</t>
+          <t>Sisu/MBK</t>
         </is>
       </c>
       <c r="E14">
-        <v>2400</v>
+        <v>2017</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>397</v>
+        <v>58</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>040282‑CAST</t>
+          <t>150888‑SINY</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Casper Staal</t>
+          <t>Simon Nykjær-Fisher</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Sisu/MBK</t>
+          <t>Viby</t>
         </is>
       </c>
       <c r="E15">
-        <v>2091</v>
+        <v>2574</v>
       </c>
       <c r="F15">
-        <v>-28</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>589</v>
+        <v>1251</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>200792‑CHAN</t>
+          <t>280466‑LAJØ</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Christian H. Andersen</t>
+          <t>Lars Jørgensen</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sisu/MBK</t>
+          <t>Silkeborg BTK</t>
         </is>
       </c>
       <c r="E16">
-        <v>1968</v>
+        <v>1666</v>
       </c>
       <c r="F16">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>618</v>
+        <v>195</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>300496‑DAWO</t>
+          <t>230961‑PEBR</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Daniel Wolf</t>
+          <t>Peter Bruhn</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sisu/MBK</t>
+          <t>Brønderslev</t>
         </is>
       </c>
       <c r="E17">
-        <v>1957</v>
+        <v>2297</v>
       </c>
       <c r="F17">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>481</v>
+        <v>38</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>020686‑DENI</t>
+          <t>030197‑ANAN</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Dennis K. Nielsen</t>
+          <t>Anton Andersson</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Nørreå</t>
+          <t>Næstved B.</t>
         </is>
       </c>
       <c r="E18">
-        <v>2038</v>
+        <v>2656</v>
       </c>
       <c r="F18">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>070802‑EMSØ</t>
+          <t>030197‑ANAN</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Emil Lynge Sørensen</t>
+          <t>Anton Andersson</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Amager</t>
+          <t>Næstved B.</t>
         </is>
       </c>
       <c r="E19">
-        <v>2383</v>
+        <v>2656</v>
       </c>
       <c r="F19">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>58</v>
+        <v>501</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>290593‑EMMA</t>
+          <t>160878‑HABO</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Emil Madsen</t>
+          <t>Hans Herluf Boisen</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Hørning</t>
+          <t>Viby</t>
         </is>
       </c>
       <c r="E20">
-        <v>2573</v>
+        <v>2034</v>
       </c>
       <c r="F20">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>2184</v>
+        <v>501</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>100510‑FRKJ</t>
+          <t>160878‑HABO</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Frederik Kjeldgaard</t>
+          <t>Hans Herluf Boisen</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Hørning</t>
+          <t>Viby</t>
         </is>
       </c>
       <c r="E21">
-        <v>1323</v>
+        <v>2034</v>
       </c>
       <c r="F21">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1219</v>
+        <v>687</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>041007‑GABE</t>
+          <t>020496‑NIJO</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Gabriel Berthelsen</t>
+          <t>Nicklas Martti Johnsen</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Amager</t>
+          <t>Viborg</t>
         </is>
       </c>
       <c r="E22">
-        <v>1671</v>
+        <v>1923</v>
       </c>
       <c r="F22">
-        <v>167</v>
+        <v>7</v>
       </c>
       <c r="G22">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>490</v>
+        <v>429</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>160878‑HABO</t>
+          <t>230706‑LAJO</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Hans Herluf Boisen</t>
+          <t>Laust Ravn Johansen</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -935,36 +827,36 @@
         </is>
       </c>
       <c r="E23">
-        <v>2034</v>
+        <v>2070</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1632</v>
+        <v>66</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>090391‑IDNI</t>
+          <t>311292‑NIMI</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Ida G. Nielsen</t>
+          <t>Nichlas Middelhede</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Sisu/MBK</t>
+          <t>Nørreå</t>
         </is>
       </c>
       <c r="E24">
-        <v>1516</v>
+        <v>2547</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -975,103 +867,103 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>256</v>
+        <v>66</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>151090‑IZNØ</t>
+          <t>311292‑NIMI</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Izabell Nørlem</t>
+          <t>Nichlas Middelhede</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Sisu/MBK</t>
+          <t>Nørreå</t>
         </is>
       </c>
       <c r="E25">
-        <v>2210</v>
+        <v>2547</v>
       </c>
       <c r="F25">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>69</v>
+        <v>157</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>080892‑JADO</t>
+          <t>230702‑OSHO</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Jakub Adam Dorocinski</t>
+          <t>Oscar Hovmøller</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Rønde</t>
+          <t>Viby</t>
         </is>
       </c>
       <c r="E26">
-        <v>2543</v>
+        <v>2353</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>300470‑JANO</t>
+          <t>230702‑OSHO</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Jan Nordhøj</t>
+          <t>Oscar Hovmøller</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Hvidovre Bordtennis</t>
+          <t>Viby</t>
         </is>
       </c>
       <c r="E27">
-        <v>2269</v>
+        <v>2353</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>2630</v>
+        <v>675</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>290171‑JAHE</t>
+          <t>210798‑LALA</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Jannick Helbo Wagner</t>
+          <t>Lasse Kardel Larsen</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1080,7 +972,7 @@
         </is>
       </c>
       <c r="E28">
-        <v>1176</v>
+        <v>1928</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1090,603 +982,581 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29">
+        <v>675</v>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>180209‑JETØ</t>
-        </is>
+          <t>210798‑LALA</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Lasse Kardel Larsen</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Hørning</t>
+        </is>
+      </c>
+      <c r="E29">
+        <v>1928</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30">
-        <v>164</v>
-      </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>090775‑JENE</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Jesper Nedergård</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Silkeborg BTK</t>
-        </is>
-      </c>
-      <c r="E30">
-        <v>2339</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
+          <t>311002‑JOMO</t>
+        </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31">
-        <v>1614</v>
-      </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>250372‑JESK</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Jesper Skivesen</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Silkeborg BTK</t>
-        </is>
-      </c>
-      <c r="E31">
-        <v>1522</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>3</v>
+          <t>311002‑JOMO</t>
+        </is>
       </c>
     </row>
     <row r="32">
+      <c r="A32">
+        <v>1109</v>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>220475-JEST</t>
-        </is>
+          <t>100906‑ANHO</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Anders Holler</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Tateni</t>
+        </is>
+      </c>
+      <c r="E32">
+        <v>1722</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32">
+        <v>38</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>388</v>
+        <v>295</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>230403‑JOGR</t>
+          <t>070387‑NISO</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Johan Grønhøj</t>
+          <t>Nick Sommer</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Sisu/MBK</t>
+          <t>Nørreå</t>
         </is>
       </c>
       <c r="E33">
-        <v>2096</v>
+        <v>2184</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34">
+      <c r="A34">
+        <v>295</v>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>311002-JOMO</t>
-        </is>
+          <t>070387‑NISO</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Nick Sommer</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Nørreå</t>
+        </is>
+      </c>
+      <c r="E34">
+        <v>2184</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>23</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>103</v>
+        <v>519</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>180365‑JOSA</t>
+          <t>020686‑DENI</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>John Sabalic</t>
+          <t>Dennis K. Nielsen</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Rønde</t>
+          <t>Nørreå</t>
         </is>
       </c>
       <c r="E35">
-        <v>2432</v>
+        <v>2020</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>4</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36">
+      <c r="A36">
+        <v>519</v>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>161098-JOBR</t>
-        </is>
+          <t>020686‑DENI</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Dennis K. Nielsen</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Nørreå</t>
+        </is>
+      </c>
+      <c r="E36">
+        <v>2020</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>38</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>363</v>
+        <v>179</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>010297‑JOOV</t>
+          <t>250901‑MIEL</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Jonas Overgaard</t>
+          <t>Mickey Elsborg</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Silkeborg BTK</t>
+          <t>Vejle</t>
         </is>
       </c>
       <c r="E37">
-        <v>2118</v>
+        <v>2326</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>280389‑JOAG</t>
+          <t>250901‑MIEL</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Jonas Ring Agerholm</t>
+          <t>Mickey Elsborg</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Rønde</t>
+          <t>Vejle</t>
         </is>
       </c>
       <c r="E38">
-        <v>2381</v>
+        <v>2326</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>120297‑JOHA</t>
+          <t>070802‑EMSØ</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Jonathan Abildgaard Hansen</t>
+          <t>Emil Lynge Sørensen</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Sisu/MBK</t>
+          <t>Amager</t>
         </is>
       </c>
       <c r="E39">
-        <v>2459</v>
+        <v>2382</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>508</v>
+        <v>135</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>030302‑JOWE</t>
+          <t>070802‑EMSØ</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Jonathan Weiss</t>
+          <t>Emil Lynge Sørensen</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Sisu/MBK</t>
+          <t>Amager</t>
         </is>
       </c>
       <c r="E40">
-        <v>2023</v>
+        <v>2382</v>
       </c>
       <c r="F40">
-        <v>-55</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>548</v>
+        <v>1650</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>060206‑KRCH</t>
+          <t>090391‑IDNI</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Kresten Christensen</t>
+          <t>Ida G. Nielsen</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>Sisu/MBK</t>
         </is>
       </c>
       <c r="E41">
-        <v>1998</v>
+        <v>1516</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>3372</v>
+        <v>1612</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>190382‑LASE</t>
+          <t>080289‑MEKR</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Lars Hartvig Bruun Severinsen</t>
+          <t>Mette Kristensen</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Esbjerg</t>
+          <t>Sisu/MBK</t>
         </is>
       </c>
       <c r="E42">
-        <v>1008</v>
+        <v>1531</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43">
-        <v>1295</v>
-      </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>280466‑LAJØ</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Lars Jørgensen</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Silkeborg BTK</t>
-        </is>
-      </c>
-      <c r="E43">
-        <v>1642</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>12</v>
+          <t>220475‑JEST</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>091184</t>
+          <t>220475‑JEST</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>666</v>
+        <v>369</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>210798‑LALA</t>
+          <t>010297‑JOOV</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Lasse Kardel Larsen</t>
+          <t>Jonas Overgaard</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Hørning</t>
+          <t>Silkeborg BTK</t>
         </is>
       </c>
       <c r="E45">
-        <v>1928</v>
+        <v>2113</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>424</v>
+        <v>227</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>230706‑LAJO</t>
+          <t>300470‑JANO</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Laust Ravn Johansen</t>
+          <t>Jan Nordhøj</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Viby</t>
+          <t>Hvidovre Bordtennis</t>
         </is>
       </c>
       <c r="E46">
-        <v>2070</v>
+        <v>2249</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="G46">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>2143</v>
+        <v>373</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>160975‑MAHA</t>
+          <t>230403‑JOGR</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Mads Harbo</t>
+          <t>Johan Grønhøj</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>Sisu/MBK</t>
         </is>
       </c>
       <c r="E47">
-        <v>1335</v>
+        <v>2110</v>
       </c>
       <c r="F47">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>149</v>
+        <v>373</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>050993‑MALA</t>
+          <t>230403‑JOGR</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Mads Larsen</t>
+          <t>Johan Grønhøj</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Silkeborg BTK</t>
+          <t>Sisu/MBK</t>
         </is>
       </c>
       <c r="E48">
-        <v>2363</v>
+        <v>2110</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>2655</v>
+        <v>227</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>220465‑MAJE</t>
+          <t>300470‑JANO</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Mai Jensen</t>
+          <t>Jan Nordhøj</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Københavns BTK</t>
+          <t>Hvidovre Bordtennis</t>
         </is>
       </c>
       <c r="E49">
-        <v>1172</v>
+        <v>2249</v>
       </c>
       <c r="F49">
-        <v>55</v>
+        <v>-8</v>
       </c>
       <c r="G49">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>432</v>
+        <v>726</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>130407‑MAHA</t>
+          <t>110696‑RAHA</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Maja Helene Hansen</t>
+          <t>Rasmus Damkjær Hansen</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>Sisu/MBK</t>
         </is>
       </c>
       <c r="E50">
-        <v>2060</v>
+        <v>1902</v>
       </c>
       <c r="F50">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51">
-        <v>659</v>
-      </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>200210‑MASE</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Malik Hartvig Bruun Severinsen</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Esbjerg</t>
-        </is>
-      </c>
-      <c r="E51">
-        <v>1932</v>
-      </c>
-      <c r="F51">
-        <v>58</v>
-      </c>
-      <c r="G51">
-        <v>47</v>
+          <t>030894‑0007</t>
+        </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52">
-        <v>138</v>
-      </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>160897‑MAKY</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Marc Kynde</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Viby</t>
-        </is>
-      </c>
-      <c r="E52">
-        <v>2376</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>5</v>
+          <t>291095‑0006</t>
+        </is>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>143</v>
+        <v>58</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>121000‑MADA</t>
+          <t>150888‑SINY</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Marius Dam</t>
+          <t>Simon Nykjær-Fisher</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1695,457 +1565,372 @@
         </is>
       </c>
       <c r="E53">
-        <v>2369</v>
+        <v>2574</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54">
-        <v>1737</v>
-      </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>250662‑MASV</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Martin Svendsen</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Holbæk BTK</t>
-        </is>
-      </c>
-      <c r="E54">
-        <v>1479</v>
-      </c>
-      <c r="F54">
-        <v>24</v>
-      </c>
-      <c r="G54">
-        <v>53</v>
+          <t>280501‑0005</t>
+        </is>
       </c>
     </row>
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>190594‑MACH</t>
+          <t>280501‑0005</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56">
-        <v>628</v>
-      </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>010883‑MAHE</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Mathias Heidmann</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Sisu/MBK</t>
-        </is>
-      </c>
-      <c r="E56">
-        <v>1950</v>
-      </c>
-      <c r="F56">
-        <v>13</v>
-      </c>
-      <c r="G56">
-        <v>31</v>
+          <t>030201‑0004</t>
+        </is>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>1594</v>
+        <v>1182</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>080289‑MEKR</t>
+          <t>110501‑SESØ</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Mette Kristensen</t>
+          <t>Sebastian Sørensen</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Sisu/MBK</t>
+          <t>Esbjerg</t>
         </is>
       </c>
       <c r="E57">
-        <v>1531</v>
+        <v>1688</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>84</v>
+        <v>1182</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>231195‑MIKN</t>
+          <t>110501‑SESØ</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Michael H. Knudsen</t>
+          <t>Sebastian Sørensen</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Rønde</t>
+          <t>Esbjerg</t>
         </is>
       </c>
       <c r="E58">
-        <v>2488</v>
+        <v>1688</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>1285</v>
+        <v>1088</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>140989‑MICH</t>
+          <t>040791‑THPE</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Michel Christensen</t>
+          <t>Thomas B. Petersen</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Ringkøbing</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="E59">
-        <v>1644</v>
+        <v>1734</v>
       </c>
       <c r="F59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>186</v>
+        <v>892</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>250901‑MIEL</t>
+          <t>230578‑THBJ</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Mickey Elsborg</t>
+          <t>Thomas Bjerregaard</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Vejle</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="E60">
-        <v>2302</v>
+        <v>1815</v>
       </c>
       <c r="F60">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>051192‑MIJA</t>
+          <t>050993‑MALA</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Mie Binnerup Jacobsen</t>
+          <t>Mads Larsen</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Sisu/MBK</t>
+          <t>Silkeborg BTK</t>
         </is>
       </c>
       <c r="E61">
-        <v>2259</v>
+        <v>2323</v>
       </c>
       <c r="F61">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>2461</v>
+        <v>180</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>030882‑MIMI</t>
+          <t>050993‑MALA</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Milosz Miszczuk</t>
+          <t>Mads Larsen</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Hørning</t>
+          <t>Silkeborg BTK</t>
         </is>
       </c>
       <c r="E62">
-        <v>1222</v>
+        <v>2323</v>
       </c>
       <c r="F62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63">
-        <v>66</v>
-      </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>311292‑NIMI</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Nichlas Middelhede</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Nørreå</t>
-        </is>
-      </c>
-      <c r="E63">
-        <v>2547</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
+          <t>291252‑0003</t>
+        </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64">
-        <v>292</v>
-      </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>070387‑NISO</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Nick Sommer</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Nørreå</t>
-        </is>
-      </c>
-      <c r="E64">
-        <v>2177</v>
-      </c>
-      <c r="F64">
-        <v>-85</v>
-      </c>
-      <c r="G64">
-        <v>18</v>
+          <t>300503‑KIBE</t>
+        </is>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>637</v>
+        <v>259</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>020496‑NIJO</t>
+          <t>151090‑IZNØ</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Nicklas Martti Johnsen</t>
+          <t>Izabell Nørlem</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Viborg</t>
+          <t>Sisu/MBK</t>
         </is>
       </c>
       <c r="E65">
-        <v>1947</v>
+        <v>2212</v>
       </c>
       <c r="F65">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>1862</v>
+        <v>230</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>221206‑OLJO</t>
+          <t>051192‑MIJA</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Oliver Kjeldgaard Johansson</t>
+          <t>Mie Binnerup Jacobsen</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Hørning</t>
+          <t>Sisu/MBK</t>
         </is>
       </c>
       <c r="E66">
-        <v>1431</v>
+        <v>2246</v>
       </c>
       <c r="F66">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>150</v>
+        <v>7</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>230702‑OSHO</t>
+          <t>141298‑ANLI</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Oscar Hovmøller</t>
+          <t>Anders Lind</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Viby</t>
+          <t>Brønshøj</t>
         </is>
       </c>
       <c r="E67">
-        <v>2360</v>
+        <v>2803</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>2782</v>
+        <v>7</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>050512‑OTSV</t>
+          <t>141298‑ANLI</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Otto Svindt</t>
+          <t>Anders Lind</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Sisu/MBK</t>
+          <t>Brønshøj</t>
         </is>
       </c>
       <c r="E68">
-        <v>1131</v>
+        <v>2803</v>
       </c>
       <c r="F68">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>182</v>
+        <v>854</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>230961‑PEBR</t>
+          <t>201005‑BADI</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Peter Bruhn</t>
+          <t>Bastian Diness</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Brønderslev</t>
+          <t>Sisu/MBK</t>
         </is>
       </c>
       <c r="E69">
-        <v>2307</v>
+        <v>1839</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2173,124 +1958,234 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71">
+        <v>1814</v>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>291252</t>
-        </is>
+          <t>221206‑OLJO</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Oliver Kjeldgaard Johansson</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Hørning</t>
+        </is>
+      </c>
+      <c r="E71">
+        <v>1457</v>
+      </c>
+      <c r="F71">
+        <v>5</v>
+      </c>
+      <c r="G71">
+        <v>56</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>761</v>
+        <v>2372</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>110696‑RAHA</t>
+          <t>100510‑FRKJ</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Rasmus Damkjær Hansen</t>
+          <t>Frederik Kjeldgaard</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Sisu/MBK</t>
+          <t>Hørning</t>
         </is>
       </c>
       <c r="E72">
-        <v>1874</v>
+        <v>1268</v>
       </c>
       <c r="F72">
-        <v>-9</v>
+        <v>-20</v>
       </c>
       <c r="G72">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73">
+      <c r="A73">
+        <v>110</v>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>280501</t>
-        </is>
+          <t>300678‑THKJ</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Thomas Kjeldgård</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Hørning</t>
+        </is>
+      </c>
+      <c r="E73">
+        <v>2420</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>15</v>
       </c>
     </row>
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>291095</t>
+          <t>230709‑ALBR</t>
         </is>
       </c>
     </row>
     <row r="75">
+      <c r="A75">
+        <v>1667</v>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>300503-KIBE</t>
-        </is>
+          <t>250662‑MASV</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Martin Svendsen</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Holbæk BTK</t>
+        </is>
+      </c>
+      <c r="E75">
+        <v>1509</v>
+      </c>
+      <c r="F75">
+        <v>27</v>
+      </c>
+      <c r="G75">
+        <v>80</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76">
-        <v>490</v>
-      </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>100595‑SEJE</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Sebastian Kjær Jensen</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Sjørring</t>
-        </is>
-      </c>
-      <c r="E76">
-        <v>2034</v>
-      </c>
-      <c r="F76">
-        <v>-27</v>
-      </c>
-      <c r="G76">
-        <v>39</v>
+          <t>291252‑0003</t>
+        </is>
       </c>
     </row>
     <row r="77">
+      <c r="A77">
+        <v>70</v>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>110501-SESØ</t>
-        </is>
+          <t>290593‑EMMA</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Emil Madsen</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Hørning</t>
+        </is>
+      </c>
+      <c r="E77">
+        <v>2537</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>20</v>
       </c>
     </row>
     <row r="78">
+      <c r="A78">
+        <v>70</v>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>030201</t>
-        </is>
+          <t>290593‑EMMA</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Emil Madsen</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Hørning</t>
+        </is>
+      </c>
+      <c r="E78">
+        <v>2537</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>20</v>
       </c>
     </row>
     <row r="79">
+      <c r="A79">
+        <v>109</v>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>250501‑SILA</t>
-        </is>
+          <t>160897‑MAKY</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Marc Kynde</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Viby</t>
+        </is>
+      </c>
+      <c r="E79">
+        <v>2421</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>12</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>150888‑SINY</t>
+          <t>160897‑MAKY</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Simon Nykjær-Fisher</t>
+          <t>Marc Kynde</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2299,7 +2194,7 @@
         </is>
       </c>
       <c r="E80">
-        <v>2576</v>
+        <v>2421</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -2309,119 +2204,3030 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81">
-        <v>1126</v>
-      </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>040791‑THPE</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Thomas B. Petersen</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Midtjylland</t>
-        </is>
-      </c>
-      <c r="E81">
-        <v>1705</v>
-      </c>
-      <c r="F81">
-        <v>-38</v>
-      </c>
-      <c r="G81">
-        <v>15</v>
+          <t>250501‑SILA</t>
+        </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82">
-        <v>868</v>
-      </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>230578‑THBJ</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Thomas Bjerregaard</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Midtjylland</t>
-        </is>
-      </c>
-      <c r="E82">
-        <v>1822</v>
-      </c>
-      <c r="F82">
-        <v>-11</v>
-      </c>
-      <c r="G82">
-        <v>15</v>
+          <t>250501‑SILA</t>
+        </is>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>110</v>
+        <v>505</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>300678‑THKJ</t>
+          <t>080790‑PEJE</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Thomas Kjeldgård</t>
+          <t>Peter Skalborg Jensen</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Hørning</t>
+          <t>Sisu/MBK</t>
         </is>
       </c>
       <c r="E83">
-        <v>2413</v>
+        <v>2031</v>
       </c>
       <c r="F83">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G83">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>2371</v>
+        <v>108</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
+          <t>180365‑JOSA</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>John Sabalic</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Rønde</t>
+        </is>
+      </c>
+      <c r="E84">
+        <v>2424</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>142</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>121000‑MADA</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Marius Dam</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Viby</t>
+        </is>
+      </c>
+      <c r="E85">
+        <v>2373</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>142</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>121000‑MADA</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Marius Dam</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Viby</t>
+        </is>
+      </c>
+      <c r="E86">
+        <v>2373</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>091184‑0002</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>091184‑0002</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>101</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>120297‑JOHA</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Jonathan Abildgaard Hansen</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Sisu/MBK</t>
+        </is>
+      </c>
+      <c r="E89">
+        <v>2457</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>101</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>120297‑JOHA</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Jonathan Abildgaard Hansen</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Sisu/MBK</t>
+        </is>
+      </c>
+      <c r="E90">
+        <v>2457</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>793</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>010883‑MAHE</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Mathias Heidmann</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Sisu/MBK</t>
+        </is>
+      </c>
+      <c r="E91">
+        <v>1870</v>
+      </c>
+      <c r="F91">
+        <v>-57</v>
+      </c>
+      <c r="G91">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>793</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010883‑MAHE</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Mathias Heidmann</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Sisu/MBK</t>
+        </is>
+      </c>
+      <c r="E92">
+        <v>1870</v>
+      </c>
+      <c r="F92">
+        <v>-57</v>
+      </c>
+      <c r="G92">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>1194</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>140989‑MICH</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Michel Christensen</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Ringkøbing</t>
+        </is>
+      </c>
+      <c r="E93">
+        <v>1685</v>
+      </c>
+      <c r="F93">
+        <v>38</v>
+      </c>
+      <c r="G93">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>247</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>060598‑BELI</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Benjamin Lillelund</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Sisu/MBK</t>
+        </is>
+      </c>
+      <c r="E94">
+        <v>2221</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>617</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>200792‑CHAN</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Christian H. Andersen</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Sisu/MBK</t>
+        </is>
+      </c>
+      <c r="E95">
+        <v>1961</v>
+      </c>
+      <c r="F95">
+        <v>-15</v>
+      </c>
+      <c r="G95">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>617</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>200792‑CHAN</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Christian H. Andersen</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Sisu/MBK</t>
+        </is>
+      </c>
+      <c r="E96">
+        <v>1961</v>
+      </c>
+      <c r="F96">
+        <v>-15</v>
+      </c>
+      <c r="G96">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>459</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>100595‑SEJE</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Sebastian Kjær Jensen</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Sjørring</t>
+        </is>
+      </c>
+      <c r="E97">
+        <v>2053</v>
+      </c>
+      <c r="F97">
+        <v>52</v>
+      </c>
+      <c r="G97">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>459</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>100595‑SEJE</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Sebastian Kjær Jensen</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Sjørring</t>
+        </is>
+      </c>
+      <c r="E98">
+        <v>2053</v>
+      </c>
+      <c r="F98">
+        <v>52</v>
+      </c>
+      <c r="G98">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>582</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>300496‑DAWO</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Daniel Wolf</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Sisu/MBK</t>
+        </is>
+      </c>
+      <c r="E99">
+        <v>1982</v>
+      </c>
+      <c r="F99">
+        <v>-16</v>
+      </c>
+      <c r="G99">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>582</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>300496‑DAWO</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Daniel Wolf</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Sisu/MBK</t>
+        </is>
+      </c>
+      <c r="E100">
+        <v>1982</v>
+      </c>
+      <c r="F100">
+        <v>-16</v>
+      </c>
+      <c r="G100">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>1422</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>080950‑BEJA</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Bent O. Jakobsen</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Sisu/MBK</t>
+        </is>
+      </c>
+      <c r="E101">
+        <v>1603</v>
+      </c>
+      <c r="F101">
+        <v>-5</v>
+      </c>
+      <c r="G101">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>400</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>040282‑CAST</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Casper Staal</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Sisu/MBK</t>
+        </is>
+      </c>
+      <c r="E102">
+        <v>2091</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>400</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>040282‑CAST</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Casper Staal</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Sisu/MBK</t>
+        </is>
+      </c>
+      <c r="E103">
+        <v>2091</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>1634</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>250372‑JESK</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Jesper Skivesen</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Silkeborg BTK</t>
+        </is>
+      </c>
+      <c r="E104">
+        <v>1522</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>1634</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>250372‑JESK</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Jesper Skivesen</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Silkeborg BTK</t>
+        </is>
+      </c>
+      <c r="E105">
+        <v>1522</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>190594‑MACH</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>76</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>080294‑BESØ</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Benjamin Sørensen</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Hørning</t>
+        </is>
+      </c>
+      <c r="E107">
+        <v>2514</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>76</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>080294‑BESØ</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Benjamin Sørensen</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Hørning</t>
+        </is>
+      </c>
+      <c r="E108">
+        <v>2514</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>169</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>090775‑JENE</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Jesper Nedergård</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Silkeborg BTK</t>
+        </is>
+      </c>
+      <c r="E109">
+        <v>2339</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>2139</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>160975‑MAHA</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Mads Harbo</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="E110">
+        <v>1347</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>85</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>080892‑JADO</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Jakub Adam Dorocinski</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Rønde</t>
+        </is>
+      </c>
+      <c r="E111">
+        <v>2492</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>85</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>080892‑JADO</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Jakub Adam Dorocinski</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Rønde</t>
+        </is>
+      </c>
+      <c r="E112">
+        <v>2492</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>85</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>080892‑JADO</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Jakub Adam Dorocinski</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Rønde</t>
+        </is>
+      </c>
+      <c r="E113">
+        <v>2492</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>85</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>080892‑JADO</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Jakub Adam Dorocinski</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Rønde</t>
+        </is>
+      </c>
+      <c r="E114">
+        <v>2492</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>505</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>060206‑KRCH</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Kresten Christensen</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="E115">
+        <v>2031</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>505</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>060206‑KRCH</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Kresten Christensen</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="E116">
+        <v>2031</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>231093‑0001</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>231093‑0001</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>2183</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>180209‑JETØ</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Jeff Tølbøll</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="E119">
+        <v>1337</v>
+      </c>
+      <c r="F119">
+        <v>21</v>
+      </c>
+      <c r="G119">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>2183</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>180209‑JETØ</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Jeff Tølbøll</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="E120">
+        <v>1337</v>
+      </c>
+      <c r="F120">
+        <v>21</v>
+      </c>
+      <c r="G120">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>2685</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>290171‑JAHE</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Jannick Helbo Wagner</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Hørning</t>
+        </is>
+      </c>
+      <c r="E121">
+        <v>1176</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>3456</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>190382‑LASE</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Lars Hartvig Bruun Severinsen</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Esbjerg</t>
+        </is>
+      </c>
+      <c r="E122">
+        <v>1008</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>3456</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>190382‑LASE</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Lars Hartvig Bruun Severinsen</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Esbjerg</t>
+        </is>
+      </c>
+      <c r="E123">
+        <v>1008</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <v>447</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>200210‑MASE</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Malik Hartvig Bruun Severinsen</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Esbjerg</t>
+        </is>
+      </c>
+      <c r="E124">
+        <v>2059</v>
+      </c>
+      <c r="F124">
+        <v>33</v>
+      </c>
+      <c r="G124">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125">
+        <v>447</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>200210‑MASE</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Malik Hartvig Bruun Severinsen</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Esbjerg</t>
+        </is>
+      </c>
+      <c r="E125">
+        <v>2059</v>
+      </c>
+      <c r="F125">
+        <v>33</v>
+      </c>
+      <c r="G125">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126">
+        <v>393</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>130407‑MAHA</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Maja Helene Hansen</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="E126">
+        <v>2095</v>
+      </c>
+      <c r="F126">
+        <v>-10</v>
+      </c>
+      <c r="G126">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127">
+        <v>393</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>130407‑MAHA</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Maja Helene Hansen</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="E127">
+        <v>2095</v>
+      </c>
+      <c r="F127">
+        <v>-10</v>
+      </c>
+      <c r="G127">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128">
+        <v>675</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>210798‑LALA</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Lasse Kardel Larsen</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Hørning</t>
+        </is>
+      </c>
+      <c r="E128">
+        <v>1928</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129">
+        <v>675</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>210798‑LALA</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Lasse Kardel Larsen</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Hørning</t>
+        </is>
+      </c>
+      <c r="E129">
+        <v>1928</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130">
+        <v>675</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>210798‑LALA</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Lasse Kardel Larsen</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Hørning</t>
+        </is>
+      </c>
+      <c r="E130">
+        <v>1928</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131">
+        <v>675</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>210798‑LALA</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Lasse Kardel Larsen</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Hørning</t>
+        </is>
+      </c>
+      <c r="E131">
+        <v>1928</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132">
+        <v>1098</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>041007‑GABE</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Gabriel Berthelsen</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Amager</t>
+        </is>
+      </c>
+      <c r="E132">
+        <v>1728</v>
+      </c>
+      <c r="F132">
+        <v>45</v>
+      </c>
+      <c r="G132">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133">
+        <v>2407</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
           <t>261205‑VIBE</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>Victoria Berthelsen</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="D133" t="inlineStr">
         <is>
           <t>Amager</t>
         </is>
       </c>
-      <c r="E84">
+      <c r="E133">
         <v>1252</v>
       </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134">
+        <v>1735</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>191003‑AMMA</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Amanda Mau</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Amager</t>
+        </is>
+      </c>
+      <c r="E134">
+        <v>1484</v>
+      </c>
+      <c r="F134">
+        <v>11</v>
+      </c>
+      <c r="G134">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135">
+        <v>505</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>080790‑PEJE</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Peter Skalborg Jensen</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Sisu/MBK</t>
+        </is>
+      </c>
+      <c r="E135">
+        <v>2031</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136">
+        <v>505</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>080790‑PEJE</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Peter Skalborg Jensen</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Sisu/MBK</t>
+        </is>
+      </c>
+      <c r="E136">
+        <v>2031</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137">
+        <v>505</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>080790‑PEJE</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Peter Skalborg Jensen</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Sisu/MBK</t>
+        </is>
+      </c>
+      <c r="E137">
+        <v>2031</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138">
+        <v>70</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>290593‑EMMA</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Emil Madsen</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Hørning</t>
+        </is>
+      </c>
+      <c r="E138">
+        <v>2537</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139">
+        <v>70</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>290593‑EMMA</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Emil Madsen</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Hørning</t>
+        </is>
+      </c>
+      <c r="E139">
+        <v>2537</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140">
+        <v>70</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>290593‑EMMA</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Emil Madsen</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Hørning</t>
+        </is>
+      </c>
+      <c r="E140">
+        <v>2537</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141">
+        <v>70</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>290593‑EMMA</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Emil Madsen</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Hørning</t>
+        </is>
+      </c>
+      <c r="E141">
+        <v>2537</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142">
+        <v>582</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>300496‑DAWO</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Daniel Wolf</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Sisu/MBK</t>
+        </is>
+      </c>
+      <c r="E142">
+        <v>1982</v>
+      </c>
+      <c r="F142">
+        <v>-16</v>
+      </c>
+      <c r="G142">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143">
+        <v>582</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>300496‑DAWO</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Daniel Wolf</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Sisu/MBK</t>
+        </is>
+      </c>
+      <c r="E143">
+        <v>1982</v>
+      </c>
+      <c r="F143">
+        <v>-16</v>
+      </c>
+      <c r="G143">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144">
+        <v>582</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>300496‑DAWO</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Daniel Wolf</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Sisu/MBK</t>
+        </is>
+      </c>
+      <c r="E144">
+        <v>1982</v>
+      </c>
+      <c r="F144">
+        <v>-16</v>
+      </c>
+      <c r="G144">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145">
+        <v>582</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>300496‑DAWO</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Daniel Wolf</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Sisu/MBK</t>
+        </is>
+      </c>
+      <c r="E145">
+        <v>1982</v>
+      </c>
+      <c r="F145">
+        <v>-16</v>
+      </c>
+      <c r="G145">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146">
+        <v>459</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>100595‑SEJE</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Sebastian Kjær Jensen</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Sjørring</t>
+        </is>
+      </c>
+      <c r="E146">
+        <v>2053</v>
+      </c>
+      <c r="F146">
+        <v>52</v>
+      </c>
+      <c r="G146">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147">
+        <v>459</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>100595‑SEJE</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Sebastian Kjær Jensen</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Sjørring</t>
+        </is>
+      </c>
+      <c r="E147">
+        <v>2053</v>
+      </c>
+      <c r="F147">
+        <v>52</v>
+      </c>
+      <c r="G147">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148">
+        <v>459</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>100595‑SEJE</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Sebastian Kjær Jensen</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Sjørring</t>
+        </is>
+      </c>
+      <c r="E148">
+        <v>2053</v>
+      </c>
+      <c r="F148">
+        <v>52</v>
+      </c>
+      <c r="G148">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149">
+        <v>459</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>100595‑SEJE</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Sebastian Kjær Jensen</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Sjørring</t>
+        </is>
+      </c>
+      <c r="E149">
+        <v>2053</v>
+      </c>
+      <c r="F149">
+        <v>52</v>
+      </c>
+      <c r="G149">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150">
+        <v>2481</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>220465‑MAJE</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Mai Jensen</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Københavns BTK</t>
+        </is>
+      </c>
+      <c r="E150">
+        <v>1227</v>
+      </c>
+      <c r="F150">
+        <v>58</v>
+      </c>
+      <c r="G150">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151">
+        <v>2481</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>220465‑MAJE</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Mai Jensen</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Københavns BTK</t>
+        </is>
+      </c>
+      <c r="E151">
+        <v>1227</v>
+      </c>
+      <c r="F151">
+        <v>58</v>
+      </c>
+      <c r="G151">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152">
+        <v>2481</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>220465‑MAJE</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Mai Jensen</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Københavns BTK</t>
+        </is>
+      </c>
+      <c r="E152">
+        <v>1227</v>
+      </c>
+      <c r="F152">
+        <v>58</v>
+      </c>
+      <c r="G152">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153">
+        <v>2481</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>220465‑MAJE</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Mai Jensen</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Københavns BTK</t>
+        </is>
+      </c>
+      <c r="E153">
+        <v>1227</v>
+      </c>
+      <c r="F153">
+        <v>58</v>
+      </c>
+      <c r="G153">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154">
+        <v>1194</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>140989‑MICH</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Michel Christensen</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Ringkøbing</t>
+        </is>
+      </c>
+      <c r="E154">
+        <v>1685</v>
+      </c>
+      <c r="F154">
+        <v>38</v>
+      </c>
+      <c r="G154">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155">
+        <v>1194</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>140989‑MICH</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Michel Christensen</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Ringkøbing</t>
+        </is>
+      </c>
+      <c r="E155">
+        <v>1685</v>
+      </c>
+      <c r="F155">
+        <v>38</v>
+      </c>
+      <c r="G155">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156">
+        <v>127</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>281101‑BJKR</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Bjarke Krog</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Brønderslev</t>
+        </is>
+      </c>
+      <c r="E156">
+        <v>2395</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157">
+        <v>127</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>281101‑BJKR</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Bjarke Krog</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Brønderslev</t>
+        </is>
+      </c>
+      <c r="E157">
+        <v>2395</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158">
+        <v>127</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>281101‑BJKR</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Bjarke Krog</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Brønderslev</t>
+        </is>
+      </c>
+      <c r="E158">
+        <v>2395</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159">
+        <v>127</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>281101‑BJKR</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Bjarke Krog</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Brønderslev</t>
+        </is>
+      </c>
+      <c r="E159">
+        <v>2395</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>250501‑SILA</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>250501‑SILA</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>250501‑SILA</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>250501‑SILA</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164">
+        <v>195</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>230961‑PEBR</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Peter Bruhn</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Brønderslev</t>
+        </is>
+      </c>
+      <c r="E164">
+        <v>2297</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165">
+        <v>108</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>180365‑JOSA</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>John Sabalic</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Rønde</t>
+        </is>
+      </c>
+      <c r="E165">
+        <v>2424</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166">
+        <v>108</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>180365‑JOSA</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>John Sabalic</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Rønde</t>
+        </is>
+      </c>
+      <c r="E166">
+        <v>2424</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167">
+        <v>108</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>180365‑JOSA</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>John Sabalic</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Rønde</t>
+        </is>
+      </c>
+      <c r="E167">
+        <v>2424</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168">
+        <v>108</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>180365‑JOSA</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>John Sabalic</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Rønde</t>
+        </is>
+      </c>
+      <c r="E168">
+        <v>2424</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169">
+        <v>93</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>231195‑MIKN</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Michael H. Knudsen</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Rønde</t>
+        </is>
+      </c>
+      <c r="E169">
+        <v>2474</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170">
+        <v>76</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>080294‑BESØ</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Benjamin Sørensen</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Hørning</t>
+        </is>
+      </c>
+      <c r="E170">
+        <v>2514</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171">
+        <v>76</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>080294‑BESØ</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Benjamin Sørensen</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Hørning</t>
+        </is>
+      </c>
+      <c r="E171">
+        <v>2514</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172">
+        <v>76</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>080294‑BESØ</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Benjamin Sørensen</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Hørning</t>
+        </is>
+      </c>
+      <c r="E172">
+        <v>2514</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173">
+        <v>76</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>080294‑BESØ</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Benjamin Sørensen</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Hørning</t>
+        </is>
+      </c>
+      <c r="E173">
+        <v>2514</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174">
+        <v>76</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>080294‑BESØ</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Benjamin Sørensen</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Hørning</t>
+        </is>
+      </c>
+      <c r="E174">
+        <v>2514</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>250501‑SILA</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176">
+        <v>180</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>050993‑MALA</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Mads Larsen</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Silkeborg BTK</t>
+        </is>
+      </c>
+      <c r="E176">
+        <v>2323</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177">
+        <v>417</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>030397‑BJLY</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Bjarke Lysdahl</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Silkeborg BTK</t>
+        </is>
+      </c>
+      <c r="E177">
+        <v>2078</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178">
+        <v>76</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>080294‑BESØ</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Benjamin Sørensen</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Hørning</t>
+        </is>
+      </c>
+      <c r="E178">
+        <v>2514</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179">
+        <v>169</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>090775‑JENE</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Jesper Nedergård</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Silkeborg BTK</t>
+        </is>
+      </c>
+      <c r="E179">
+        <v>2339</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180">
+        <v>85</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>080892‑JADO</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Jakub Adam Dorocinski</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Rønde</t>
+        </is>
+      </c>
+      <c r="E180">
+        <v>2492</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181">
+        <v>64</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>070102‑MIEM</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Mikkel Emborg</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Hvidovre Bordtennis</t>
+        </is>
+      </c>
+      <c r="E181">
+        <v>2553</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182">
+        <v>76</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>080294‑BESØ</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Benjamin Sørensen</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Hørning</t>
+        </is>
+      </c>
+      <c r="E182">
+        <v>2514</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183">
+        <v>169</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>090775‑JENE</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Jesper Nedergård</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Silkeborg BTK</t>
+        </is>
+      </c>
+      <c r="E183">
+        <v>2339</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184">
+        <v>180</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>050993‑MALA</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Mads Larsen</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Silkeborg BTK</t>
+        </is>
+      </c>
+      <c r="E184">
+        <v>2323</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185">
+        <v>135</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>070802‑EMSØ</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Emil Lynge Sørensen</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Amager</t>
+        </is>
+      </c>
+      <c r="E185">
+        <v>2382</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186">
+        <v>76</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>080294‑BESØ</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Benjamin Sørensen</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Hørning</t>
+        </is>
+      </c>
+      <c r="E186">
+        <v>2514</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187">
+        <v>169</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>090775‑JENE</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Jesper Nedergård</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Silkeborg BTK</t>
+        </is>
+      </c>
+      <c r="E187">
+        <v>2339</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188">
+        <v>180</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>050993‑MALA</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Mads Larsen</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Silkeborg BTK</t>
+        </is>
+      </c>
+      <c r="E188">
+        <v>2323</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189">
+        <v>31</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>131100‑MAAN</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Martin Buch Andersen</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Virum</t>
+        </is>
+      </c>
+      <c r="E189">
+        <v>2687</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190">
+        <v>169</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>090775‑JENE</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Jesper Nedergård</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Silkeborg BTK</t>
+        </is>
+      </c>
+      <c r="E190">
+        <v>2339</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191">
+        <v>85</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>080892‑JADO</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Jakub Adam Dorocinski</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Rønde</t>
+        </is>
+      </c>
+      <c r="E191">
+        <v>2492</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192">
+        <v>369</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>010297‑JOOV</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Jonas Overgaard</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Silkeborg BTK</t>
+        </is>
+      </c>
+      <c r="E192">
+        <v>2113</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>160990‑MIST</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>241273‑ISMO</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195">
+        <v>85</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>080892‑JADO</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Jakub Adam Dorocinski</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Rønde</t>
+        </is>
+      </c>
+      <c r="E195">
+        <v>2492</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Filer/Webscraping join rating.xlsx
+++ b/Filer/Webscraping join rating.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="27.05.2022" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
